--- a/output/fit_clients/fit_round_130.xlsx
+++ b/output/fit_clients/fit_round_130.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2033446345.083694</v>
+        <v>1966514926.693041</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07174235475742999</v>
+        <v>0.0979196607197082</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02868111430751025</v>
+        <v>0.04093238350043523</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1016723172.635252</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1896576517.742221</v>
+        <v>1621865014.495798</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1485917062088456</v>
+        <v>0.1758532597689504</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05064813009263273</v>
+        <v>0.03849655774094653</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>948288282.8670344</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3794140801.443925</v>
+        <v>4372092288.041295</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1398589920790924</v>
+        <v>0.1091668254611174</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03563950636231616</v>
+        <v>0.03346217265400285</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1897070400.266076</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3251950798.984437</v>
+        <v>3543066718.265871</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08297384712730459</v>
+        <v>0.0716243329902215</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03269331550734087</v>
+        <v>0.04856454130857156</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>51</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1625975452.649922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1910899614.554204</v>
+        <v>1741920105.000232</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1323438563690006</v>
+        <v>0.1172818856935857</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05007588472829676</v>
+        <v>0.04831000827442453</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>955449846.4676949</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2019678000.529968</v>
+        <v>2861416171.618558</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08815760331459978</v>
+        <v>0.0969594166179195</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04744840951414934</v>
+        <v>0.04011689163750989</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>37</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1009839059.459713</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2948336157.123129</v>
+        <v>3247158384.645109</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2181294050052755</v>
+        <v>0.2151191281675648</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03327382256783198</v>
+        <v>0.02696618372800399</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>42</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1474168130.751015</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1816080093.316703</v>
+        <v>1637764464.382839</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1744850307491243</v>
+        <v>0.1770001609882123</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0305367274343747</v>
+        <v>0.03368372698938342</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>908040098.7480853</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5093819501.830789</v>
+        <v>4443202433.303787</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1641161459882842</v>
+        <v>0.1992405118006219</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05427683311840804</v>
+        <v>0.03283499622971837</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>55</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2546909857.435862</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2961821140.466057</v>
+        <v>4000512396.41632</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1327881251383801</v>
+        <v>0.1422022256464134</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04325163054713917</v>
+        <v>0.0318933027282912</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>54</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1480910510.496741</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2336654744.814557</v>
+        <v>3143726085.71191</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1398459995767476</v>
+        <v>0.1850198248460237</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05183485211961106</v>
+        <v>0.03812171958172541</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>46</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1168327329.627919</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4093495760.48899</v>
+        <v>3441770520.151022</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08706633862870106</v>
+        <v>0.06202554242226423</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02245934209115382</v>
+        <v>0.02685514591216305</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>44</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2046747930.370757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3721157336.078499</v>
+        <v>3354553228.894628</v>
       </c>
       <c r="F14" t="n">
-        <v>0.144006039127184</v>
+        <v>0.1645470997936806</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03225169968703766</v>
+        <v>0.03867589684237098</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>41</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1860578650.191211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1285193699.054971</v>
+        <v>1399674330.748718</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09738336274639783</v>
+        <v>0.09860715511061004</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0316594799621484</v>
+        <v>0.0428783512742108</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>642596886.2811823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2117277650.798811</v>
+        <v>2431321003.926804</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07905148917513655</v>
+        <v>0.09554922289629247</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03815644684272497</v>
+        <v>0.04248637953546881</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1058638890.36262</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4763029992.551742</v>
+        <v>4695098841.149775</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1729255844330963</v>
+        <v>0.1550338886607802</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03533946707808352</v>
+        <v>0.03948421581684347</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>38</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2381514993.061756</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2651054516.151222</v>
+        <v>2502096539.728224</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1673781253350737</v>
+        <v>0.142090424657049</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02740036386695534</v>
+        <v>0.02160342923721884</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>43</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1325527313.512894</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1066618252.89849</v>
+        <v>1244713553.192033</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1426764263161504</v>
+        <v>0.1658107984323586</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0174228162988898</v>
+        <v>0.02177135149957397</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>533309171.8454052</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2428503176.837173</v>
+        <v>2113463580.130983</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1429410307951709</v>
+        <v>0.1616680186225036</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02264891291269725</v>
+        <v>0.02013872972564327</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1214251569.083889</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2468600365.483133</v>
+        <v>2648991274.381447</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07552768771170938</v>
+        <v>0.06945577138909763</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02922856052445534</v>
+        <v>0.04440448272395148</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1234300173.843825</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2473414849.141921</v>
+        <v>2676780492.933892</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1089136102509144</v>
+        <v>0.1436927911996047</v>
       </c>
       <c r="G22" t="n">
-        <v>0.037184032997743</v>
+        <v>0.03926180229554131</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>37</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1236707517.594146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1089642765.091945</v>
+        <v>1503359050.098092</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1311231537425529</v>
+        <v>0.1452493455043952</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03637139751050028</v>
+        <v>0.03374148718621552</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>544821437.5759562</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3912978337.811307</v>
+        <v>2538946450.908525</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1284598987992434</v>
+        <v>0.1025321697741503</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03433319842372259</v>
+        <v>0.03219717566838433</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>38</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1956489142.70429</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1402115619.155594</v>
+        <v>1037851165.930622</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07710193698819402</v>
+        <v>0.08697882899237994</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03019078747265724</v>
+        <v>0.02982410479953993</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>701057780.9996207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>931745140.0082197</v>
+        <v>1113480494.318144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07778375702370603</v>
+        <v>0.08852709352763395</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02858116932617019</v>
+        <v>0.0362113161417396</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>465872525.3736503</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4550240470.222022</v>
+        <v>3030924675.435854</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1335656699140128</v>
+        <v>0.1039859564463711</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02055355692127512</v>
+        <v>0.02395596650303277</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2275120217.887707</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3189867836.637154</v>
+        <v>3825013675.618158</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09429851959272056</v>
+        <v>0.1037371050003614</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04534349098381221</v>
+        <v>0.04665068532491157</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>42</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1594933945.968526</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3746207384.349048</v>
+        <v>5189661936.856105</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1178337160677893</v>
+        <v>0.1508842955652742</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03266004357690482</v>
+        <v>0.03016500713891139</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>58</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1873103726.567461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1718396824.737626</v>
+        <v>2281148021.864442</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1066893438633629</v>
+        <v>0.1195045806376394</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04015943641243287</v>
+        <v>0.02894246713290138</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>859198417.7097735</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1020026916.261755</v>
+        <v>981749802.9784347</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09784227450216126</v>
+        <v>0.1089935899996215</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0481490054372222</v>
+        <v>0.03677721212234667</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>510013451.904775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1358611018.015509</v>
+        <v>1674102070.081796</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08716387666265923</v>
+        <v>0.08981373193750351</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03591401608401243</v>
+        <v>0.02885005839489534</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>679305548.0025516</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2221889696.822193</v>
+        <v>2260946605.057066</v>
       </c>
       <c r="F33" t="n">
-        <v>0.155018657777526</v>
+        <v>0.1450419060108896</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04423314439127497</v>
+        <v>0.04577340988098122</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>39</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1110944910.254156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1562087308.568613</v>
+        <v>1259144743.098548</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1186612847267974</v>
+        <v>0.1087685151853737</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02048996945106355</v>
+        <v>0.02470677573465731</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>781043599.8738085</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1203584298.780398</v>
+        <v>1119095189.243697</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09394650298971477</v>
+        <v>0.09797623341615358</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0365226489771448</v>
+        <v>0.04294818498493547</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>601792123.2749811</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2941639009.398303</v>
+        <v>2356926917.072387</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1238583160833762</v>
+        <v>0.1199728409230252</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02701460849942755</v>
+        <v>0.02846712482281746</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1470819491.252737</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2225221542.206006</v>
+        <v>2681737304.56065</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09752429140201478</v>
+        <v>0.09605843136838382</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02630745545370532</v>
+        <v>0.03919953760460224</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>33</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1112610829.344578</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1684268615.613674</v>
+        <v>1359099183.555931</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1151336322905352</v>
+        <v>0.08194745565943427</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03081411540626666</v>
+        <v>0.03471135014097344</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>842134330.9871448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1821091433.54859</v>
+        <v>1386012737.571005</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1681917707938279</v>
+        <v>0.1172734333719989</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02792156028297856</v>
+        <v>0.02032573543900835</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>910545738.4102557</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1166954248.775028</v>
+        <v>1440109965.907202</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1316089524276448</v>
+        <v>0.1102130511901215</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0522469254989875</v>
+        <v>0.04944881726384091</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>583477173.9223961</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2234960099.61539</v>
+        <v>2035764863.772808</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1105786947563961</v>
+        <v>0.1340648959833582</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02852323311361791</v>
+        <v>0.04639199863121648</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>33</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1117480100.965592</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3644942150.884276</v>
+        <v>4152356366.104904</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1219489484228096</v>
+        <v>0.08100237528970582</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0391957610685823</v>
+        <v>0.03848058208485908</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1822471080.218295</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2793350460.301668</v>
+        <v>2169856363.596579</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1796682852730422</v>
+        <v>0.1463403945659037</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01834350505940661</v>
+        <v>0.02061871243679637</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>42</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1396675249.247109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2338812474.803859</v>
+        <v>1546842959.334651</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1020562960965414</v>
+        <v>0.07367845683178072</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0302225057194292</v>
+        <v>0.03339968688239787</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1169406411.293074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1544289691.370804</v>
+        <v>1773447989.098613</v>
       </c>
       <c r="F45" t="n">
-        <v>0.191131735437628</v>
+        <v>0.1260148900959605</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05480921041653745</v>
+        <v>0.0430123706286148</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>772144790.5619172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4377546586.407193</v>
+        <v>5177746493.475945</v>
       </c>
       <c r="F46" t="n">
-        <v>0.116484924718387</v>
+        <v>0.156898101799208</v>
       </c>
       <c r="G46" t="n">
-        <v>0.044275967542358</v>
+        <v>0.05865276673447424</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>46</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2188773284.303844</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4764776310.745779</v>
+        <v>4215566562.216758</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1485147147406616</v>
+        <v>0.1951272638915091</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05839616065947514</v>
+        <v>0.04685818964181012</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>35</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2382388197.79655</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4117182612.079543</v>
+        <v>3160262844.451982</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09120302341920414</v>
+        <v>0.09358176517850095</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0283774415903828</v>
+        <v>0.02447994126342931</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2058591333.553733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1636713686.290264</v>
+        <v>1509248222.839298</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1791162206241661</v>
+        <v>0.1841762821920239</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02846015739862938</v>
+        <v>0.03917012912435404</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>818356853.8735824</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3451043414.639629</v>
+        <v>3295487267.615556</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1234362441023064</v>
+        <v>0.1288683706101469</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04144820908625587</v>
+        <v>0.0457559930401906</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>44</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1725521735.030312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1159822969.7969</v>
+        <v>1182999349.014548</v>
       </c>
       <c r="F51" t="n">
-        <v>0.175607033728435</v>
+        <v>0.1819795939562434</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04177139418865548</v>
+        <v>0.03919412404280753</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>579911542.9244015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4201104546.035189</v>
+        <v>5307867289.488454</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1131580822796758</v>
+        <v>0.09462146124728443</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04161536522647218</v>
+        <v>0.04578260380088142</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>54</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2100552317.614254</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3003453923.245264</v>
+        <v>2637754670.282663</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1896501735083421</v>
+        <v>0.1713837676314896</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02422136354220932</v>
+        <v>0.03156609304602449</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>37</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1501726993.800567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4840570561.103407</v>
+        <v>3201943783.457172</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1666334933634338</v>
+        <v>0.1062143540303759</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03553677374491318</v>
+        <v>0.04944929957126831</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2420285410.55653</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4470761912.946007</v>
+        <v>4183865679.427011</v>
       </c>
       <c r="F55" t="n">
-        <v>0.205071668752791</v>
+        <v>0.1586706653828343</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02370369620516614</v>
+        <v>0.02629099654669659</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>36</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2235380952.093</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1511227576.653871</v>
+        <v>1228271305.97402</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1638118697434753</v>
+        <v>0.1425801716544383</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03825028079495031</v>
+        <v>0.041799947048253</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>755613828.8728466</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4345958092.016327</v>
+        <v>2842973955.910068</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1316322206454525</v>
+        <v>0.1312559308181802</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02537978870476188</v>
+        <v>0.02625373628110999</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>41</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2172979163.379557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1203299542.588467</v>
+        <v>1504289652.13326</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1449152954813372</v>
+        <v>0.1877075424825286</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02884930401858065</v>
+        <v>0.03346975718497869</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>601649829.4465879</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3904120665.920194</v>
+        <v>3782483274.391792</v>
       </c>
       <c r="F59" t="n">
-        <v>0.120373902710385</v>
+        <v>0.1231883272328995</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04754846365691926</v>
+        <v>0.04782952956850659</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1952060313.494963</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3222120689.593722</v>
+        <v>2743921301.785923</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1350708105705775</v>
+        <v>0.1888972594046107</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02432766254302276</v>
+        <v>0.02805417788200478</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>41</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1611060438.390371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3181306372.830784</v>
+        <v>2073645386.078831</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1760182305786792</v>
+        <v>0.1462987784763743</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02456740463168499</v>
+        <v>0.02115518324169532</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>44</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1590653149.737861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1848009077.844992</v>
+        <v>1741716412.40186</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1457958481857182</v>
+        <v>0.1398610507681939</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03561026834102073</v>
+        <v>0.04129031007713085</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>924004574.1657103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4244363078.45509</v>
+        <v>4812647638.095391</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09711291832253795</v>
+        <v>0.07912323746775841</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02878199468501049</v>
+        <v>0.04092852254231309</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>37</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2122181590.677179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4958141556.521174</v>
+        <v>4443646672.280961</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1867306782853303</v>
+        <v>0.1863205119391532</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03352186669843261</v>
+        <v>0.02285647421467312</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>41</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2479070881.470553</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4664017839.835082</v>
+        <v>4196688606.749363</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1642949007990759</v>
+        <v>0.1555329355837056</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02708315781030967</v>
+        <v>0.02412720443347831</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>47</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2332008898.833004</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3752913787.335414</v>
+        <v>4574736164.536776</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1217283291851752</v>
+        <v>0.09955808918932119</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04677034788756398</v>
+        <v>0.0350854135368477</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>38</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1876456853.991487</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2471525446.367309</v>
+        <v>2229491940.347543</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06925557571138466</v>
+        <v>0.07288349796220503</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03698941494530145</v>
+        <v>0.05068837273988581</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>41</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1235762786.172</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4746900589.117766</v>
+        <v>5560640152.745048</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1336881630115972</v>
+        <v>0.1388883787514611</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03647955944722878</v>
+        <v>0.03267226394102281</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>41</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2373450335.564586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2093908493.685081</v>
+        <v>1951933349.712701</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1389202960893991</v>
+        <v>0.1494989606431386</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04593182018545459</v>
+        <v>0.05733674280211971</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1046954263.91293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2437397449.136391</v>
+        <v>3489933611.569414</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09412782911759981</v>
+        <v>0.07582573928969001</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03968716821812964</v>
+        <v>0.03641925093199685</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>38</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1218698664.888612</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5186714921.02001</v>
+        <v>4208562508.444623</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1532042512386524</v>
+        <v>0.1729736268991137</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03245805310762083</v>
+        <v>0.02682708669010817</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>47</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2593357580.125459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1492858180.323437</v>
+        <v>2043364175.164176</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09546313651475519</v>
+        <v>0.1062912525226557</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03238358271707677</v>
+        <v>0.04591703410465232</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>746429118.2632322</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3553572260.047057</v>
+        <v>3528854927.983813</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1065668873480912</v>
+        <v>0.1120140524721647</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03307335541667119</v>
+        <v>0.04522783495212444</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>50</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1776786075.256726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3130347329.330827</v>
+        <v>2721445147.72949</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1681310660040415</v>
+        <v>0.1482101432080114</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02328294872702417</v>
+        <v>0.03521481083076907</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>45</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1565173718.769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2286454974.822279</v>
+        <v>1541745435.611109</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1319213312940138</v>
+        <v>0.1354976431806255</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03620969929444282</v>
+        <v>0.0285170547566358</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1143227424.738715</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4386891146.78114</v>
+        <v>3909708322.40269</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1216679770052441</v>
+        <v>0.08750346397328239</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03190511464504658</v>
+        <v>0.03291568005856597</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>28</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2193445574.299751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1840692609.022007</v>
+        <v>1930142090.406235</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1701527755279987</v>
+        <v>0.1163562279397901</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03131650987104181</v>
+        <v>0.02604595763055604</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>920346342.455717</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4049334479.951493</v>
+        <v>4566399641.292698</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1370692123076867</v>
+        <v>0.1087653705377115</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04782755235551037</v>
+        <v>0.05475174545369538</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>45</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2024667202.124209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1780145890.649542</v>
+        <v>1202555509.710627</v>
       </c>
       <c r="F79" t="n">
-        <v>0.116507125850258</v>
+        <v>0.1099119363821065</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04066892890442614</v>
+        <v>0.03283547986835559</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>890073028.4838274</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4881396019.251476</v>
+        <v>3715996532.096268</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0774980469814605</v>
+        <v>0.1086085644674026</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03767999233440169</v>
+        <v>0.0362028391260153</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>27</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2440698052.880259</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3898215033.261013</v>
+        <v>4783184758.113548</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08817122953369573</v>
+        <v>0.09640687204039425</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02227222145446699</v>
+        <v>0.02729005933315009</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1949107476.00495</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4366338679.257434</v>
+        <v>4953049787.378633</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1474292703116564</v>
+        <v>0.1630884741947156</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02608868922842533</v>
+        <v>0.02471233355843356</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2183169358.857254</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1613539022.802725</v>
+        <v>1650237570.86486</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1170145995047296</v>
+        <v>0.09753327549127884</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03164938205840519</v>
+        <v>0.0403042246057889</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>806769448.5967274</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1676765642.29573</v>
+        <v>2208503617.507718</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08183406143561203</v>
+        <v>0.1139332106609206</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04204249060937</v>
+        <v>0.03828123882941021</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>838382873.4380618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2859290461.934917</v>
+        <v>3382981984.082145</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1143116622606131</v>
+        <v>0.1706432326488312</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05155802326718562</v>
+        <v>0.04251122961027445</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>49</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1429645275.548513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1814429118.035545</v>
+        <v>2350451593.304251</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1042253283720714</v>
+        <v>0.1216647402521367</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02501325173077085</v>
+        <v>0.02008231639097174</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>907214560.7866144</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1226221457.85172</v>
+        <v>1186955836.179869</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1725079552202887</v>
+        <v>0.1466788903461693</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02789989999883752</v>
+        <v>0.03464399245259662</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>613110791.1852474</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3195620837.276976</v>
+        <v>3120181562.80349</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1343157771974385</v>
+        <v>0.1218092303003127</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03050902978735521</v>
+        <v>0.03318045713240154</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>52</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1597810468.36103</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2866924310.979894</v>
+        <v>3452303361.604111</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1570049160886657</v>
+        <v>0.1582099138623956</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03844479864306037</v>
+        <v>0.0305607824980149</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>45</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1433462203.310664</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1760492871.253629</v>
+        <v>1330824613.884973</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1050841299635596</v>
+        <v>0.09428461126643961</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05266508294937076</v>
+        <v>0.04817259474701915</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>880246461.9873406</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1735498665.957175</v>
+        <v>2089103347.32376</v>
       </c>
       <c r="F91" t="n">
-        <v>0.189334353901288</v>
+        <v>0.1231947686135458</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05319097139354107</v>
+        <v>0.06061331641963252</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>867749340.4681823</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2939036285.742064</v>
+        <v>2409005594.642869</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1019356391833664</v>
+        <v>0.091083160454367</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03036415234562375</v>
+        <v>0.03497521149730034</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>30</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1469518159.925233</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4569869454.702369</v>
+        <v>3683904586.551329</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1279595366343435</v>
+        <v>0.1346634897979241</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05421173192541188</v>
+        <v>0.04483761479256449</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2284934691.087055</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1750264739.123069</v>
+        <v>2318697364.11947</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1128582415014771</v>
+        <v>0.110439973273207</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03923643109437754</v>
+        <v>0.03803971615420324</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>875132335.3669201</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3079679788.562969</v>
+        <v>2723626978.030961</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1155927586241326</v>
+        <v>0.1029703205460986</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03721659675508652</v>
+        <v>0.04546472429858738</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>31</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1539839888.152309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2395580641.996461</v>
+        <v>1562215415.719914</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1217326142631018</v>
+        <v>0.111025828200199</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03244354214160657</v>
+        <v>0.02894756233203932</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1197790265.677961</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3821949326.606163</v>
+        <v>4459465701.694291</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1443178745986165</v>
+        <v>0.1310566580761394</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02285492852117346</v>
+        <v>0.02071061851745257</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>43</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1910974705.3188</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3339705095.603441</v>
+        <v>2480394556.72127</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1108877655865618</v>
+        <v>0.09052128498139356</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02117254045412549</v>
+        <v>0.02228397446145053</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>34</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1669852555.495744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2447126321.875926</v>
+        <v>3277979666.08955</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1291345943951266</v>
+        <v>0.1229278862778801</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03556432467485404</v>
+        <v>0.03140464654334337</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>42</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1223563106.771596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4218614060.003199</v>
+        <v>3620064176.527455</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1268646184246307</v>
+        <v>0.1569014475797192</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01884679701771954</v>
+        <v>0.02547563417786789</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>40</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2109307118.073284</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2190616850.012615</v>
+        <v>3263947946.927276</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1891907187377763</v>
+        <v>0.1522893137866609</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05328158274387555</v>
+        <v>0.05791389886252357</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>54</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1095308407.051231</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_130.xlsx
+++ b/output/fit_clients/fit_round_130.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1966514926.693041</v>
+        <v>1873902359.269622</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0979196607197082</v>
+        <v>0.08379569480766809</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04093238350043523</v>
+        <v>0.03235113486991255</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1621865014.495798</v>
+        <v>2096361748.404723</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1758532597689504</v>
+        <v>0.1534925883667157</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03849655774094653</v>
+        <v>0.05030863724688193</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4372092288.041295</v>
+        <v>3520182820.067889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1091668254611174</v>
+        <v>0.1424228763931722</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03346217265400285</v>
+        <v>0.03014269766952029</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3543066718.265871</v>
+        <v>2741330085.242178</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0716243329902215</v>
+        <v>0.06904822259987492</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04856454130857156</v>
+        <v>0.0413262488598392</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1741920105.000232</v>
+        <v>2476098259.842463</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1172818856935857</v>
+        <v>0.0914613062069725</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04831000827442453</v>
+        <v>0.05662962407505802</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2861416171.618558</v>
+        <v>3049809348.449776</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0969594166179195</v>
+        <v>0.07952349699848221</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04011689163750989</v>
+        <v>0.03507661585790067</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3247158384.645109</v>
+        <v>3416746154.164544</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2151191281675648</v>
+        <v>0.197561010173723</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02696618372800399</v>
+        <v>0.02794737732414219</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1637764464.382839</v>
+        <v>1599974757.127745</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1770001609882123</v>
+        <v>0.1554418857970049</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03368372698938342</v>
+        <v>0.03632655622783032</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4443202433.303787</v>
+        <v>5950602584.859238</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1992405118006219</v>
+        <v>0.1775916765996213</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03283499622971837</v>
+        <v>0.04027444574326333</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4000512396.41632</v>
+        <v>3873416413.719788</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1422022256464134</v>
+        <v>0.1201590080109633</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0318933027282912</v>
+        <v>0.04630322137021861</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3143726085.71191</v>
+        <v>2475713401.802979</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1850198248460237</v>
+        <v>0.1405782179239241</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03812171958172541</v>
+        <v>0.04789776305934248</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3441770520.151022</v>
+        <v>4593640538.130698</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06202554242226423</v>
+        <v>0.08289528935272618</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02685514591216305</v>
+        <v>0.01978957510007568</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3354553228.894628</v>
+        <v>2619619934.673137</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1645470997936806</v>
+        <v>0.1551329069182887</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03867589684237098</v>
+        <v>0.02868551979038431</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1399674330.748718</v>
+        <v>1227120845.256933</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09860715511061004</v>
+        <v>0.07098841297395542</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0428783512742108</v>
+        <v>0.03832195664442624</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2431321003.926804</v>
+        <v>1749211652.222199</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09554922289629247</v>
+        <v>0.09736301831242979</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04248637953546881</v>
+        <v>0.04073793332896465</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4695098841.149775</v>
+        <v>4381720469.984083</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1550338886607802</v>
+        <v>0.1567355473145269</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03948421581684347</v>
+        <v>0.05149219193370633</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2502096539.728224</v>
+        <v>3333533978.17749</v>
       </c>
       <c r="F18" t="n">
-        <v>0.142090424657049</v>
+        <v>0.133298020742902</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02160342923721884</v>
+        <v>0.02912155917937695</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1244713553.192033</v>
+        <v>843954661.2603054</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1658107984323586</v>
+        <v>0.1277659752562147</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02177135149957397</v>
+        <v>0.02070799169671453</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2113463580.130983</v>
+        <v>2772221516.734574</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1616680186225036</v>
+        <v>0.142251564155987</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02013872972564327</v>
+        <v>0.02096981812054861</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2648991274.381447</v>
+        <v>2624403440.535473</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06945577138909763</v>
+        <v>0.1026904886249486</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04440448272395148</v>
+        <v>0.03121140906755834</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2676780492.933892</v>
+        <v>2651718239.649899</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1436927911996047</v>
+        <v>0.09922410762698644</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03926180229554131</v>
+        <v>0.05180820706386476</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1503359050.098092</v>
+        <v>1005399891.648147</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1452493455043952</v>
+        <v>0.1442388070609368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03374148718621552</v>
+        <v>0.04418739704019783</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2538946450.908525</v>
+        <v>3715738374.226343</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1025321697741503</v>
+        <v>0.1204041412798769</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03219717566838433</v>
+        <v>0.02666090046133627</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1037851165.930622</v>
+        <v>1279951300.282448</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08697882899237994</v>
+        <v>0.1211758361367748</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02982410479953993</v>
+        <v>0.02559992089441964</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1113480494.318144</v>
+        <v>1172373174.213556</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08852709352763395</v>
+        <v>0.1194731730300891</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0362113161417396</v>
+        <v>0.03178996627700263</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3030924675.435854</v>
+        <v>3786079758.581728</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1039859564463711</v>
+        <v>0.1572069780482027</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02395596650303277</v>
+        <v>0.02265674842133203</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3825013675.618158</v>
+        <v>2413497583.634142</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1037371050003614</v>
+        <v>0.1248885503975817</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04665068532491157</v>
+        <v>0.04590301874948756</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5189661936.856105</v>
+        <v>4318057244.914363</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1508842955652742</v>
+        <v>0.098252942619474</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03016500713891139</v>
+        <v>0.04284097080905384</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2281148021.864442</v>
+        <v>2399867689.279063</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1195045806376394</v>
+        <v>0.1051049868864364</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02894246713290138</v>
+        <v>0.0252739815999052</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>981749802.9784347</v>
+        <v>1052146971.505097</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1089935899996215</v>
+        <v>0.09538976593305123</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03677721212234667</v>
+        <v>0.03600042344344068</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1674102070.081796</v>
+        <v>1480185669.233845</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08981373193750351</v>
+        <v>0.09531840548815697</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02885005839489534</v>
+        <v>0.02920673969604282</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2260946605.057066</v>
+        <v>2033527024.276098</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1450419060108896</v>
+        <v>0.184083667874611</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04577340988098122</v>
+        <v>0.05880769790878936</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1259144743.098548</v>
+        <v>1075028381.069872</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1087685151853737</v>
+        <v>0.0955046777962773</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02470677573465731</v>
+        <v>0.02814330752745034</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1119095189.243697</v>
+        <v>1219193334.414008</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09797623341615358</v>
+        <v>0.09410384265496294</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04294818498493547</v>
+        <v>0.04058467818863162</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2356926917.072387</v>
+        <v>2349496550.982703</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1199728409230252</v>
+        <v>0.1334193906164843</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02846712482281746</v>
+        <v>0.02053245982984771</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2681737304.56065</v>
+        <v>2252770251.622646</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09605843136838382</v>
+        <v>0.1061622932046158</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03919953760460224</v>
+        <v>0.04182892505737899</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1359099183.555931</v>
+        <v>2060708608.681954</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08194745565943427</v>
+        <v>0.1085866019028538</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03471135014097344</v>
+        <v>0.03116146983736814</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1386012737.571005</v>
+        <v>1631384901.787758</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1172734333719989</v>
+        <v>0.1327525132284812</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02032573543900835</v>
+        <v>0.02808658333603838</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1440109965.907202</v>
+        <v>1481912305.354169</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1102130511901215</v>
+        <v>0.1596071095869359</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04944881726384091</v>
+        <v>0.04391652640666079</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2035764863.772808</v>
+        <v>2759096424.1668</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1340648959833582</v>
+        <v>0.1357649694650312</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04639199863121648</v>
+        <v>0.03637010805852237</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4152356366.104904</v>
+        <v>4286193709.733804</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08100237528970582</v>
+        <v>0.1195385110310817</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03848058208485908</v>
+        <v>0.03686198670769699</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2169856363.596579</v>
+        <v>2550079760.419487</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1463403945659037</v>
+        <v>0.2025555984538383</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02061871243679637</v>
+        <v>0.02072920104760365</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1546842959.334651</v>
+        <v>1993119097.105577</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07367845683178072</v>
+        <v>0.08123978851061095</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03339968688239787</v>
+        <v>0.03069511788144805</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1773447989.098613</v>
+        <v>1923232488.318332</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1260148900959605</v>
+        <v>0.1894863052353767</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0430123706286148</v>
+        <v>0.04622351544873261</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5177746493.475945</v>
+        <v>4536153238.297466</v>
       </c>
       <c r="F46" t="n">
-        <v>0.156898101799208</v>
+        <v>0.1630938211805631</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05865276673447424</v>
+        <v>0.04258945173733673</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4215566562.216758</v>
+        <v>4312721712.017057</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1951272638915091</v>
+        <v>0.1784485246140051</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04685818964181012</v>
+        <v>0.04136540423144022</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3160262844.451982</v>
+        <v>2925450717.490117</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09358176517850095</v>
+        <v>0.06646443415968713</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02447994126342931</v>
+        <v>0.03235828893939889</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1509248222.839298</v>
+        <v>1604890069.744691</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1841762821920239</v>
+        <v>0.1413539989501349</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03917012912435404</v>
+        <v>0.04033563059115882</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3295487267.615556</v>
+        <v>3032324645.374472</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1288683706101469</v>
+        <v>0.1457422664211804</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0457559930401906</v>
+        <v>0.03665355698045996</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1182999349.014548</v>
+        <v>1490192495.713921</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1819795939562434</v>
+        <v>0.1963634266973668</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03919412404280753</v>
+        <v>0.04098517274917086</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5307867289.488454</v>
+        <v>3984812144.379512</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09462146124728443</v>
+        <v>0.1090294553013626</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04578260380088142</v>
+        <v>0.04039720508052547</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2637754670.282663</v>
+        <v>3635773504.49563</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1713837676314896</v>
+        <v>0.1741361713658066</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03156609304602449</v>
+        <v>0.02882781551463552</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3201943783.457172</v>
+        <v>3069323633.072321</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1062143540303759</v>
+        <v>0.1339037182043889</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04944929957126831</v>
+        <v>0.04401491098797751</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4183865679.427011</v>
+        <v>4638022038.866114</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1586706653828343</v>
+        <v>0.2107307159669563</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02629099654669659</v>
+        <v>0.02570987262355164</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1228271305.97402</v>
+        <v>1714754650.125025</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1425801716544383</v>
+        <v>0.123296610801577</v>
       </c>
       <c r="G56" t="n">
-        <v>0.041799947048253</v>
+        <v>0.05687576367522539</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2842973955.910068</v>
+        <v>3327685652.30674</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1312559308181802</v>
+        <v>0.1370428761769014</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02625373628110999</v>
+        <v>0.02702633163381092</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1504289652.13326</v>
+        <v>1887665184.144296</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1877075424825286</v>
+        <v>0.1921408874884459</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03346975718497869</v>
+        <v>0.02653144401082691</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3782483274.391792</v>
+        <v>4092000122.363765</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1231883272328995</v>
+        <v>0.1208224360231933</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04782952956850659</v>
+        <v>0.04464193891509966</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2743921301.785923</v>
+        <v>2307533238.134282</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1888972594046107</v>
+        <v>0.1552813979137343</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02805417788200478</v>
+        <v>0.02488895567066528</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2073645386.078831</v>
+        <v>3356576975.173231</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1462987784763743</v>
+        <v>0.1578394230232527</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02115518324169532</v>
+        <v>0.03039421395669299</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1741716412.40186</v>
+        <v>1721238601.043766</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1398610507681939</v>
+        <v>0.1250404683662579</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04129031007713085</v>
+        <v>0.04709322847577063</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4812647638.095391</v>
+        <v>4322320436.454528</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07912323746775841</v>
+        <v>0.08067671482415333</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04092852254231309</v>
+        <v>0.03240026825000288</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4443646672.280961</v>
+        <v>3470606674.931072</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1863205119391532</v>
+        <v>0.1845134167653483</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02285647421467312</v>
+        <v>0.02814284702073248</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4196688606.749363</v>
+        <v>4512767020.75226</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1555329355837056</v>
+        <v>0.1579647471380569</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02412720443347831</v>
+        <v>0.02015918209480176</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4574736164.536776</v>
+        <v>5584489762.682904</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09955808918932119</v>
+        <v>0.116514074358607</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0350854135368477</v>
+        <v>0.05066107962253225</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2229491940.347543</v>
+        <v>3379544465.279357</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07288349796220503</v>
+        <v>0.07644074010425345</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05068837273988581</v>
+        <v>0.04906156051929143</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5560640152.745048</v>
+        <v>3940196593.321068</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1388883787514611</v>
+        <v>0.1030803797412064</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03267226394102281</v>
+        <v>0.03680117456687763</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1951933349.712701</v>
+        <v>1909966887.627414</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1494989606431386</v>
+        <v>0.158337500268057</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05733674280211971</v>
+        <v>0.0459177400158147</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3489933611.569414</v>
+        <v>3378247686.522857</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07582573928969001</v>
+        <v>0.07088506397741365</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03641925093199685</v>
+        <v>0.03619130184812543</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4208562508.444623</v>
+        <v>4724322872.498793</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1729736268991137</v>
+        <v>0.1719803755278328</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02682708669010817</v>
+        <v>0.02825133146850848</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2043364175.164176</v>
+        <v>1838546770.703255</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1062912525226557</v>
+        <v>0.06773513782645166</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04591703410465232</v>
+        <v>0.03399158886656155</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3528854927.983813</v>
+        <v>2851991701.092761</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1120140524721647</v>
+        <v>0.07248693290607029</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04522783495212444</v>
+        <v>0.04219590715943554</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2721445147.72949</v>
+        <v>3070573222.537546</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1482101432080114</v>
+        <v>0.1347791466976823</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03521481083076907</v>
+        <v>0.02632295659533235</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1541745435.611109</v>
+        <v>1938770701.095466</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1354976431806255</v>
+        <v>0.113666061520528</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0285170547566358</v>
+        <v>0.03395290899573811</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3909708322.40269</v>
+        <v>3279689131.877116</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08750346397328239</v>
+        <v>0.09558915639774916</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03291568005856597</v>
+        <v>0.02154141700036052</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1930142090.406235</v>
+        <v>1991187424.099599</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1163562279397901</v>
+        <v>0.1285795820843183</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02604595763055604</v>
+        <v>0.02136926586159984</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4566399641.292698</v>
+        <v>3950609485.361118</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1087653705377115</v>
+        <v>0.09572387484006262</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05475174545369538</v>
+        <v>0.0385911797216397</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1202555509.710627</v>
+        <v>1437896262.709273</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1099119363821065</v>
+        <v>0.1318936416676454</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03283547986835559</v>
+        <v>0.03112987526919581</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3715996532.096268</v>
+        <v>4965656785.866135</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1086085644674026</v>
+        <v>0.09287534613385846</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0362028391260153</v>
+        <v>0.03455981744158309</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4783184758.113548</v>
+        <v>4864631399.679658</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09640687204039425</v>
+        <v>0.1154257146527093</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02729005933315009</v>
+        <v>0.02131037988031961</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4953049787.378633</v>
+        <v>4608483264.810071</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1630884741947156</v>
+        <v>0.175958609124244</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02471233355843356</v>
+        <v>0.02610307274742663</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1650237570.86486</v>
+        <v>2098930902.308274</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09753327549127884</v>
+        <v>0.1539944675231079</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0403042246057889</v>
+        <v>0.0284818414923337</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2208503617.507718</v>
+        <v>1620278643.52733</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1139332106609206</v>
+        <v>0.1051459716036463</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03828123882941021</v>
+        <v>0.04269647618886155</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3382981984.082145</v>
+        <v>3068586190.790267</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1706432326488312</v>
+        <v>0.1744786690193321</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04251122961027445</v>
+        <v>0.04188182812853459</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2350451593.304251</v>
+        <v>2308599643.642991</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1216647402521367</v>
+        <v>0.1475575600219793</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02008231639097174</v>
+        <v>0.02316185217114028</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1186955836.179869</v>
+        <v>1241627260.604064</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1466788903461693</v>
+        <v>0.1309092938461912</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03464399245259662</v>
+        <v>0.0336819764955978</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3120181562.80349</v>
+        <v>2678910199.301301</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1218092303003127</v>
+        <v>0.1642201700642138</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03318045713240154</v>
+        <v>0.03438429717260608</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3452303361.604111</v>
+        <v>2269411952.288174</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1582099138623956</v>
+        <v>0.1133285848417405</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0305607824980149</v>
+        <v>0.03255684392564326</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1330824613.884973</v>
+        <v>1956800511.617209</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09428461126643961</v>
+        <v>0.1122228646537856</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04817259474701915</v>
+        <v>0.04000503217075308</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2089103347.32376</v>
+        <v>1763180738.752674</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1231947686135458</v>
+        <v>0.1742963727284899</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06061331641963252</v>
+        <v>0.04483794835412539</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2409005594.642869</v>
+        <v>2177317234.255572</v>
       </c>
       <c r="F92" t="n">
-        <v>0.091083160454367</v>
+        <v>0.06650872730080783</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03497521149730034</v>
+        <v>0.04131402329552084</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3683904586.551329</v>
+        <v>3107225778.221144</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1346634897979241</v>
+        <v>0.09678342579704344</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04483761479256449</v>
+        <v>0.05069643089605338</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2318697364.11947</v>
+        <v>2138466917.079057</v>
       </c>
       <c r="F94" t="n">
-        <v>0.110439973273207</v>
+        <v>0.1075003158609402</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03803971615420324</v>
+        <v>0.03450392996657362</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2723626978.030961</v>
+        <v>3210870476.351903</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1029703205460986</v>
+        <v>0.1308021800126227</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04546472429858738</v>
+        <v>0.04947436063743677</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1562215415.719914</v>
+        <v>1751908945.391546</v>
       </c>
       <c r="F96" t="n">
-        <v>0.111025828200199</v>
+        <v>0.1260435281692873</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02894756233203932</v>
+        <v>0.04432043740989133</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4459465701.694291</v>
+        <v>4648731990.02741</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1310566580761394</v>
+        <v>0.1163626653244218</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02071061851745257</v>
+        <v>0.02783351982294305</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2480394556.72127</v>
+        <v>3836944444.268147</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09052128498139356</v>
+        <v>0.111680863022319</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02228397446145053</v>
+        <v>0.02907005479567404</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3277979666.08955</v>
+        <v>2223946428.862269</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1229278862778801</v>
+        <v>0.1030000619433214</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03140464654334337</v>
+        <v>0.02288125789468705</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3620064176.527455</v>
+        <v>4662698796.606588</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1569014475797192</v>
+        <v>0.1336101885385759</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02547563417786789</v>
+        <v>0.02473079186852068</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3263947946.927276</v>
+        <v>3318146680.636189</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1522893137866609</v>
+        <v>0.1549796686449459</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05791389886252357</v>
+        <v>0.05386515256461197</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_130.xlsx
+++ b/output/fit_clients/fit_round_130.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1873902359.269622</v>
+        <v>2186490451.765462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08379569480766809</v>
+        <v>0.08631839989868441</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03235113486991255</v>
+        <v>0.04539940310304727</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2096361748.404723</v>
+        <v>2622637886.955052</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1534925883667157</v>
+        <v>0.1390562094799506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05030863724688193</v>
+        <v>0.04834772002241505</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3520182820.067889</v>
+        <v>3616036515.812905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1424228763931722</v>
+        <v>0.1373484109865447</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03014269766952029</v>
+        <v>0.0242564896641812</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>77</v>
+      </c>
+      <c r="J4" t="n">
+        <v>128</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2741330085.242178</v>
+        <v>2685601409.208066</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06904822259987492</v>
+        <v>0.08133568219003036</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0413262488598392</v>
+        <v>0.04816904766971346</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>53</v>
+      </c>
+      <c r="J5" t="n">
+        <v>129</v>
+      </c>
+      <c r="K5" t="n">
+        <v>89.60137021031385</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2476098259.842463</v>
+        <v>1958393815.874838</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0914613062069725</v>
+        <v>0.1225582621546957</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05662962407505802</v>
+        <v>0.05009323155176414</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3049809348.449776</v>
+        <v>2186496598.821051</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07952349699848221</v>
+        <v>0.09316766638195735</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03507661585790067</v>
+        <v>0.03927434238056441</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3416746154.164544</v>
+        <v>3149314125.990035</v>
       </c>
       <c r="F8" t="n">
-        <v>0.197561010173723</v>
+        <v>0.1733132131440416</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02794737732414219</v>
+        <v>0.02456573149045186</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>38</v>
+      </c>
+      <c r="J8" t="n">
+        <v>129</v>
+      </c>
+      <c r="K8" t="n">
+        <v>110.4929242699151</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1599974757.127745</v>
+        <v>1881305542.320037</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1554418857970049</v>
+        <v>0.1750910862184333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03632655622783032</v>
+        <v>0.02250851368163575</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5950602584.859238</v>
+        <v>4311356461.733443</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1775916765996213</v>
+        <v>0.1941310919708883</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04027444574326333</v>
+        <v>0.03642741121532121</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>119</v>
+      </c>
+      <c r="J10" t="n">
+        <v>130</v>
+      </c>
+      <c r="K10" t="n">
+        <v>160.9703487636134</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3873416413.719788</v>
+        <v>3952992478.462283</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1201590080109633</v>
+        <v>0.1744878011248341</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04630322137021861</v>
+        <v>0.03775767674464343</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>55</v>
+      </c>
+      <c r="J11" t="n">
+        <v>130</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2475713401.802979</v>
+        <v>2506216701.590141</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1405782179239241</v>
+        <v>0.1567424589825052</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04789776305934248</v>
+        <v>0.03501121336768806</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4593640538.130698</v>
+        <v>4886208195.45555</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08289528935272618</v>
+        <v>0.09250778523398707</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01978957510007568</v>
+        <v>0.02054352451575102</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>63</v>
+      </c>
+      <c r="J13" t="n">
+        <v>130</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2619619934.673137</v>
+        <v>2643559177.939111</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1551329069182887</v>
+        <v>0.1502401517016058</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02868551979038431</v>
+        <v>0.04275573456243965</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>124</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1227120845.256933</v>
+        <v>1453932295.192526</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07098841297395542</v>
+        <v>0.06662520460501933</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03832195664442624</v>
+        <v>0.03441673987575988</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1749211652.222199</v>
+        <v>2717081089.914954</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09736301831242979</v>
+        <v>0.09214034713524738</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04073793332896465</v>
+        <v>0.04309793108138685</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4381720469.984083</v>
+        <v>4136215146.417794</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1567355473145269</v>
+        <v>0.1284000044532226</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05149219193370633</v>
+        <v>0.04286835685179951</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>62</v>
+      </c>
+      <c r="J17" t="n">
+        <v>130</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3333533978.17749</v>
+        <v>3828277553.908671</v>
       </c>
       <c r="F18" t="n">
-        <v>0.133298020742902</v>
+        <v>0.1675372975486347</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02912155917937695</v>
+        <v>0.02173094245924397</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>34</v>
+      </c>
+      <c r="J18" t="n">
+        <v>130</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>843954661.2603054</v>
+        <v>1302969069.113103</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1277659752562147</v>
+        <v>0.1421216398662269</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02070799169671453</v>
+        <v>0.02106072223042048</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2772221516.734574</v>
+        <v>2453662952.505779</v>
       </c>
       <c r="F20" t="n">
-        <v>0.142251564155987</v>
+        <v>0.1580278899167854</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02096981812054861</v>
+        <v>0.02036908456937133</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2624403440.535473</v>
+        <v>2571630917.942352</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1026904886249486</v>
+        <v>0.09716282290475661</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03121140906755834</v>
+        <v>0.03581393676013477</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2651718239.649899</v>
+        <v>2624083538.24839</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09922410762698644</v>
+        <v>0.1330938953550266</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05180820706386476</v>
+        <v>0.05701524705423504</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>123</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1005399891.648147</v>
+        <v>961470926.5972488</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1442388070609368</v>
+        <v>0.1789145496039852</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04418739704019783</v>
+        <v>0.04928859275041638</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3715738374.226343</v>
+        <v>3288851475.75174</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1204041412798769</v>
+        <v>0.1416666995876778</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02666090046133627</v>
+        <v>0.02459741086045094</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>38</v>
+      </c>
+      <c r="J24" t="n">
+        <v>127</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1279951300.282448</v>
+        <v>901519590.5352505</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1211758361367748</v>
+        <v>0.08953601107157719</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02559992089441964</v>
+        <v>0.02336868366192772</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1172373174.213556</v>
+        <v>1197870797.054675</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1194731730300891</v>
+        <v>0.08656246872443447</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03178996627700263</v>
+        <v>0.02440304599012911</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3786079758.581728</v>
+        <v>3201995530.580887</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1572069780482027</v>
+        <v>0.1072087913233618</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02265674842133203</v>
+        <v>0.01779816756031168</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>51</v>
+      </c>
+      <c r="J27" t="n">
+        <v>128</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1417,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2413497583.634142</v>
+        <v>3713266224.338396</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1248885503975817</v>
+        <v>0.1047261980246241</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04590301874948756</v>
+        <v>0.04281211752586209</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>28</v>
+      </c>
+      <c r="J28" t="n">
+        <v>130</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4318057244.914363</v>
+        <v>3626493100.100401</v>
       </c>
       <c r="F29" t="n">
-        <v>0.098252942619474</v>
+        <v>0.1387672220501092</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04284097080905384</v>
+        <v>0.03075176936139591</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>120</v>
+      </c>
+      <c r="J29" t="n">
+        <v>130</v>
+      </c>
+      <c r="K29" t="n">
+        <v>172.7229147551905</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2399867689.279063</v>
+        <v>1914557913.004071</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1051049868864364</v>
+        <v>0.0845556149795797</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0252739815999052</v>
+        <v>0.02911080970100613</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1052146971.505097</v>
+        <v>1176001496.165532</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09538976593305123</v>
+        <v>0.09943071340597928</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03600042344344068</v>
+        <v>0.04224498545417527</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1480185669.233845</v>
+        <v>1526056913.542559</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09531840548815697</v>
+        <v>0.1151644392739731</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02920673969604282</v>
+        <v>0.02902028743648019</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2033527024.276098</v>
+        <v>2598930461.396478</v>
       </c>
       <c r="F33" t="n">
-        <v>0.184083667874611</v>
+        <v>0.1307027500745712</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05880769790878936</v>
+        <v>0.04252307608614446</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1075028381.069872</v>
+        <v>1181220688.08385</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0955046777962773</v>
+        <v>0.1032859315505638</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02814330752745034</v>
+        <v>0.019725322165324</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1219193334.414008</v>
+        <v>988994463.3300059</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09410384265496294</v>
+        <v>0.1122333772375018</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04058467818863162</v>
+        <v>0.04136412764877929</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2349496550.982703</v>
+        <v>2880356045.056937</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1334193906164843</v>
+        <v>0.1688429424401421</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02053245982984771</v>
+        <v>0.02157523138830963</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2252770251.622646</v>
+        <v>2153910438.049034</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1061622932046158</v>
+        <v>0.09050999588837251</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04182892505737899</v>
+        <v>0.02900326449897764</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2060708608.681954</v>
+        <v>1382210949.596657</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1085866019028538</v>
+        <v>0.1043944860104182</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03116146983736814</v>
+        <v>0.02546707071648413</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1631384901.787758</v>
+        <v>1353486559.973515</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1327525132284812</v>
+        <v>0.151538274274658</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02808658333603838</v>
+        <v>0.02288357082591908</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1839,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1481912305.354169</v>
+        <v>1532407374.492441</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1596071095869359</v>
+        <v>0.1077326611193513</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04391652640666079</v>
+        <v>0.04027862373678393</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2759096424.1668</v>
+        <v>2500818920.105129</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1357649694650312</v>
+        <v>0.1253198323344399</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03637010805852237</v>
+        <v>0.04306793659222756</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1909,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4286193709.733804</v>
+        <v>3749621182.44142</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1195385110310817</v>
+        <v>0.1001966958973267</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03686198670769699</v>
+        <v>0.04578838801301138</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>48</v>
+      </c>
+      <c r="J42" t="n">
+        <v>130</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2550079760.419487</v>
+        <v>2254932585.448635</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2025555984538383</v>
+        <v>0.1835402939370617</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02072920104760365</v>
+        <v>0.0162879998881123</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1993119097.105577</v>
+        <v>1559528809.140315</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08123978851061095</v>
+        <v>0.08361150069717138</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03069511788144805</v>
+        <v>0.02983076830112075</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1923232488.318332</v>
+        <v>2480447014.296553</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1894863052353767</v>
+        <v>0.1257249881982282</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04622351544873261</v>
+        <v>0.04099379285823187</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4536153238.297466</v>
+        <v>3875320757.634623</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1630938211805631</v>
+        <v>0.1619083791991872</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04258945173733673</v>
+        <v>0.03698330311289445</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>74</v>
+      </c>
+      <c r="J46" t="n">
+        <v>130</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2078,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4312721712.017057</v>
+        <v>4462576529.434316</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1784485246140051</v>
+        <v>0.1395188826170327</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04136540423144022</v>
+        <v>0.05716586805904145</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>58</v>
+      </c>
+      <c r="J47" t="n">
+        <v>129</v>
+      </c>
+      <c r="K47" t="n">
+        <v>121.1885641647168</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2925450717.490117</v>
+        <v>4394406910.371671</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06646443415968713</v>
+        <v>0.07535808022241981</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03235828893939889</v>
+        <v>0.02543365931284313</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>51</v>
+      </c>
+      <c r="J48" t="n">
+        <v>130</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2156,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1604890069.744691</v>
+        <v>1985014682.197558</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1413539989501349</v>
+        <v>0.1465143340540231</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04033563059115882</v>
+        <v>0.03367404571711781</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2185,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3032324645.374472</v>
+        <v>3015607934.568227</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1457422664211804</v>
+        <v>0.1117511637162408</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03665355698045996</v>
+        <v>0.05044635889921842</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>45</v>
+      </c>
+      <c r="J50" t="n">
+        <v>129</v>
+      </c>
+      <c r="K50" t="n">
+        <v>100.6504229397801</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1490192495.713921</v>
+        <v>1471335678.146884</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1963634266973668</v>
+        <v>0.1455208247851587</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04098517274917086</v>
+        <v>0.05226873865458126</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3984812144.379512</v>
+        <v>3232661452.352357</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1090294553013626</v>
+        <v>0.132505747278475</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04039720508052547</v>
+        <v>0.04598492336509786</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>99</v>
+      </c>
+      <c r="J52" t="n">
+        <v>129</v>
+      </c>
+      <c r="K52" t="n">
+        <v>118.5087293928668</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +2300,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3635773504.49563</v>
+        <v>3541224125.355818</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1741361713658066</v>
+        <v>0.1527853351554569</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02882781551463552</v>
+        <v>0.02460944710223536</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>129</v>
+      </c>
+      <c r="K53" t="n">
+        <v>128.7327784028264</v>
       </c>
     </row>
     <row r="54">
@@ -1942,17 +2337,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3069323633.072321</v>
+        <v>3574677258.79735</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1339037182043889</v>
+        <v>0.1539815633389933</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04401491098797751</v>
+        <v>0.03408694925898869</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>59</v>
+      </c>
+      <c r="J54" t="n">
+        <v>128</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4638022038.866114</v>
+        <v>3423815615.48377</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2107307159669563</v>
+        <v>0.2065208408320919</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02570987262355164</v>
+        <v>0.0280558001326293</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>60</v>
+      </c>
+      <c r="J55" t="n">
+        <v>129</v>
+      </c>
+      <c r="K55" t="n">
+        <v>121.8934434229399</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1714754650.125025</v>
+        <v>1891118112.471514</v>
       </c>
       <c r="F56" t="n">
-        <v>0.123296610801577</v>
+        <v>0.1374591175516355</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05687576367522539</v>
+        <v>0.04070597016306167</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2444,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3327685652.30674</v>
+        <v>4315832689.929353</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1370428761769014</v>
+        <v>0.12856330944071</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02702633163381092</v>
+        <v>0.02484891151706138</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>51</v>
+      </c>
+      <c r="J57" t="n">
+        <v>130</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1887665184.144296</v>
+        <v>1670568063.163205</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1921408874884459</v>
+        <v>0.1898213802515201</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02653144401082691</v>
+        <v>0.03366741318011689</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4092000122.363765</v>
+        <v>5048451602.349036</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1208224360231933</v>
+        <v>0.1103181343649957</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04464193891509966</v>
+        <v>0.04828836206858472</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>63</v>
+      </c>
+      <c r="J59" t="n">
+        <v>129</v>
+      </c>
+      <c r="K59" t="n">
+        <v>137.8175238224874</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2307533238.134282</v>
+        <v>3724189235.912977</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1552813979137343</v>
+        <v>0.1725981408393583</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02488895567066528</v>
+        <v>0.02824671964267806</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20</v>
+      </c>
+      <c r="J60" t="n">
+        <v>130</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3356576975.173231</v>
+        <v>3082612735.173618</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1578394230232527</v>
+        <v>0.1188477629694622</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03039421395669299</v>
+        <v>0.0248924971983241</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1721238601.043766</v>
+        <v>2088105880.980305</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1250404683662579</v>
+        <v>0.1306431134516688</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04709322847577063</v>
+        <v>0.03693139941969915</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4322320436.454528</v>
+        <v>3648751305.713881</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08067671482415333</v>
+        <v>0.08073745948519889</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03240026825000288</v>
+        <v>0.02981830494897534</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>64</v>
+      </c>
+      <c r="J63" t="n">
+        <v>128</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3470606674.931072</v>
+        <v>4922885374.636306</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1845134167653483</v>
+        <v>0.1691938206961663</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02814284702073248</v>
+        <v>0.02506481829933633</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>64</v>
+      </c>
+      <c r="J64" t="n">
+        <v>130</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2726,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4512767020.75226</v>
+        <v>5676518607.831313</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1579647471380569</v>
+        <v>0.1683032783034507</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02015918209480176</v>
+        <v>0.03113062941506866</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>108</v>
+      </c>
+      <c r="J65" t="n">
+        <v>130</v>
+      </c>
+      <c r="K65" t="n">
+        <v>151.2538217742621</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5584489762.682904</v>
+        <v>5429697700.943186</v>
       </c>
       <c r="F66" t="n">
-        <v>0.116514074358607</v>
+        <v>0.1423517188443611</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05066107962253225</v>
+        <v>0.03119729561677191</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>64</v>
+      </c>
+      <c r="J66" t="n">
+        <v>129</v>
+      </c>
+      <c r="K66" t="n">
+        <v>136.2193761231142</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3379544465.279357</v>
+        <v>3471278869.402954</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07644074010425345</v>
+        <v>0.1030152163898014</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04906156051929143</v>
+        <v>0.04401630302259558</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3940196593.321068</v>
+        <v>4518450107.934396</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1030803797412064</v>
+        <v>0.1409399321894269</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03680117456687763</v>
+        <v>0.04593036792583254</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>65</v>
+      </c>
+      <c r="J68" t="n">
+        <v>130</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1909966887.627414</v>
+        <v>1626020883.651258</v>
       </c>
       <c r="F69" t="n">
-        <v>0.158337500268057</v>
+        <v>0.1551371689278923</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0459177400158147</v>
+        <v>0.05119780279650216</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2905,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3378247686.522857</v>
+        <v>3673149957.10722</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07088506397741365</v>
+        <v>0.06699009307500275</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03619130184812543</v>
+        <v>0.04585919668187083</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>130</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4724322872.498793</v>
+        <v>3783718437.160033</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1719803755278328</v>
+        <v>0.1800156384643387</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02825133146850848</v>
+        <v>0.02638791674879403</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>105</v>
+      </c>
+      <c r="J71" t="n">
+        <v>130</v>
+      </c>
+      <c r="K71" t="n">
+        <v>149.6597108963094</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1838546770.703255</v>
+        <v>2129075010.226364</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06773513782645166</v>
+        <v>0.09067836768411315</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03399158886656155</v>
+        <v>0.03382156232409636</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2851991701.092761</v>
+        <v>2193653554.876646</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07248693290607029</v>
+        <v>0.1111454992170286</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04219590715943554</v>
+        <v>0.03527526035723752</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3070573222.537546</v>
+        <v>3617749476.532466</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1347791466976823</v>
+        <v>0.1372553695448278</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02632295659533235</v>
+        <v>0.02778729646775217</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>43</v>
+      </c>
+      <c r="J74" t="n">
+        <v>129</v>
+      </c>
+      <c r="K74" t="n">
+        <v>146.7979737633495</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1938770701.095466</v>
+        <v>2352906756.839577</v>
       </c>
       <c r="F75" t="n">
-        <v>0.113666061520528</v>
+        <v>0.1482459976553215</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03395290899573811</v>
+        <v>0.02364829506618726</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3279689131.877116</v>
+        <v>4527304208.48776</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09558915639774916</v>
+        <v>0.08027618035712751</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02154141700036052</v>
+        <v>0.02081446252809536</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>60</v>
+      </c>
+      <c r="J76" t="n">
+        <v>130</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1991187424.099599</v>
+        <v>2285170647.819505</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1285795820843183</v>
+        <v>0.1380537069137791</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02136926586159984</v>
+        <v>0.01988196907804985</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3950609485.361118</v>
+        <v>3176473725.763596</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09572387484006262</v>
+        <v>0.1280115278013585</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0385911797216397</v>
+        <v>0.05203575471269645</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>64</v>
+      </c>
+      <c r="J78" t="n">
+        <v>129</v>
+      </c>
+      <c r="K78" t="n">
+        <v>116.9375209255958</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1437896262.709273</v>
+        <v>1775512740.494865</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1318936416676454</v>
+        <v>0.1438543968437711</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03112987526919581</v>
+        <v>0.02903119811367252</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4965656785.866135</v>
+        <v>5337757126.133933</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09287534613385846</v>
+        <v>0.09078173620377591</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03455981744158309</v>
+        <v>0.03786293718417708</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>63</v>
+      </c>
+      <c r="J80" t="n">
+        <v>129</v>
+      </c>
+      <c r="K80" t="n">
+        <v>109.2821233995185</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4864631399.679658</v>
+        <v>4584190017.332004</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1154257146527093</v>
+        <v>0.1057562560855766</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02131037988031961</v>
+        <v>0.02586481576374117</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>59</v>
+      </c>
+      <c r="J81" t="n">
+        <v>129</v>
+      </c>
+      <c r="K81" t="n">
+        <v>125.8901976428369</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4608483264.810071</v>
+        <v>5193505638.825454</v>
       </c>
       <c r="F82" t="n">
-        <v>0.175958609124244</v>
+        <v>0.1689663669450942</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02610307274742663</v>
+        <v>0.02106110933763283</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>91</v>
+      </c>
+      <c r="J82" t="n">
+        <v>130</v>
+      </c>
+      <c r="K82" t="n">
+        <v>156.6898825961139</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2098930902.308274</v>
+        <v>1570097375.845113</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1539944675231079</v>
+        <v>0.1050984191134895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0284818414923337</v>
+        <v>0.03065725907615061</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1620278643.52733</v>
+        <v>1789737562.267989</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1051459716036463</v>
+        <v>0.1093494941552459</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04269647618886155</v>
+        <v>0.03217770325741819</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3068586190.790267</v>
+        <v>3157418012.591236</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1744786690193321</v>
+        <v>0.1801394687483596</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04188182812853459</v>
+        <v>0.0402404101151609</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2308599643.642991</v>
+        <v>2152617474.672731</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1475575600219793</v>
+        <v>0.144325054625494</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02316185217114028</v>
+        <v>0.02007128391883304</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1241627260.604064</v>
+        <v>955237104.943846</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1309092938461912</v>
+        <v>0.1308731039929297</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0336819764955978</v>
+        <v>0.03181208829595956</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2678910199.301301</v>
+        <v>2696149642.514305</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1642201700642138</v>
+        <v>0.1232325893367912</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03438429717260608</v>
+        <v>0.03994483641242835</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2269411952.288174</v>
+        <v>2782247235.470545</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1133285848417405</v>
+        <v>0.1339904004591707</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03255684392564326</v>
+        <v>0.02588577237637204</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1956800511.617209</v>
+        <v>1473929243.430651</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1122228646537856</v>
+        <v>0.124671989274845</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04000503217075308</v>
+        <v>0.04006604394861303</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1763180738.752674</v>
+        <v>1268171635.833838</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1742963727284899</v>
+        <v>0.1354052042391434</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04483794835412539</v>
+        <v>0.04748069876942267</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2177317234.255572</v>
+        <v>2946774508.103319</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06650872730080783</v>
+        <v>0.09102725677763439</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04131402329552084</v>
+        <v>0.04173370436742937</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3107225778.221144</v>
+        <v>4323855719.182138</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09678342579704344</v>
+        <v>0.09853044857690227</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05069643089605338</v>
+        <v>0.04439445560652678</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>59</v>
+      </c>
+      <c r="J93" t="n">
+        <v>129</v>
+      </c>
+      <c r="K93" t="n">
+        <v>136.5275772500516</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2138466917.079057</v>
+        <v>1615155599.06478</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1075003158609402</v>
+        <v>0.1160010087054587</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03450392996657362</v>
+        <v>0.02762244109078764</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3210870476.351903</v>
+        <v>2222977363.639374</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1308021800126227</v>
+        <v>0.1155931247246239</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04947436063743677</v>
+        <v>0.03822351603003908</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1751908945.391546</v>
+        <v>1483451913.331544</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1260435281692873</v>
+        <v>0.1251779522439446</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04432043740989133</v>
+        <v>0.04732263111831267</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4648731990.02741</v>
+        <v>4034906486.765019</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1163626653244218</v>
+        <v>0.1434591542034715</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02783351982294305</v>
+        <v>0.02718783118644701</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>62</v>
+      </c>
+      <c r="J97" t="n">
+        <v>130</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3836944444.268147</v>
+        <v>3185203056.7846</v>
       </c>
       <c r="F98" t="n">
-        <v>0.111680863022319</v>
+        <v>0.117900410125969</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02907005479567404</v>
+        <v>0.02754203607298478</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>31</v>
+      </c>
+      <c r="J98" t="n">
+        <v>129</v>
+      </c>
+      <c r="K98" t="n">
+        <v>99.14227313373291</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2223946428.862269</v>
+        <v>3056916017.867097</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1030000619433214</v>
+        <v>0.1415069799637977</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02288125789468705</v>
+        <v>0.02261393769291055</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4662698796.606588</v>
+        <v>3572648898.402806</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1336101885385759</v>
+        <v>0.1170479433632025</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02473079186852068</v>
+        <v>0.02050738796769746</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>53</v>
+      </c>
+      <c r="J100" t="n">
+        <v>128</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3318146680.636189</v>
+        <v>3256524372.774024</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1549796686449459</v>
+        <v>0.2140768553987632</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05386515256461197</v>
+        <v>0.0586760339166072</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
